--- a/prediction_data_non_corrected.xlsx
+++ b/prediction_data_non_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/tbt24_cam_ac_uk/Documents/Engineering Tripos/Part IIA/GA3 Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDDA419-7A4A-4F5C-806F-485C1AAC1048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{DBDDA419-7A4A-4F5C-806F-485C1AAC1048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD7CB57A-864E-4FC9-871B-5AA9A5F1E2DB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -192,9 +192,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,25 +507,28 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="5" width="12.796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.9296875" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="12.796875" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="8.1328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.3984375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.796875" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" customWidth="1"/>
     <col min="12" max="12" width="12.796875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" customWidth="1"/>
     <col min="14" max="14" width="12.796875" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
     <col min="16" max="16" width="10.9296875" customWidth="1"/>
-    <col min="17" max="17" width="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
